--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145573.1622724182</v>
+        <v>25147664.31591122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145573.1622724182</v>
+        <v>25147664.31591122</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3375.007312257925</v>
+        <v>302207.5460234214</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3375.007312257925</v>
+        <v>302207.5460234214</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034821795.138268</v>
+        <v>41489577.17243554</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7524.664007973021</v>
+        <v>851936.6155750907</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15024.81920941892</v>
+        <v>1698995.978651282</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22524.9744108648</v>
+        <v>2546055.341727474</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30170.63261824334</v>
+        <v>3395599.377929959</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37810.37692327872</v>
+        <v>4243966.54756615</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45450.12122831408</v>
+        <v>5092333.717202341</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53089.86553334945</v>
+        <v>5940700.886838529</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60729.60983838481</v>
+        <v>6789068.056474717</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68369.35414342018</v>
+        <v>7637435.226110905</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76009.09844845552</v>
+        <v>8485802.395747093</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83648.84275349088</v>
+        <v>9334169.565383289</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91143.08405259353</v>
+        <v>10180052.06189319</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98643.23925403941</v>
+        <v>11027111.42496939</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106373.5906239068</v>
+        <v>11852921.95026837</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114093.241674359</v>
+        <v>12676603.11200373</v>
       </c>
     </row>
   </sheetData>
